--- a/excel/inportdataabsen.xlsx
+++ b/excel/inportdataabsen.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\absensi_client\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\absensi_client\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -62,10 +62,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="169" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,18 +124,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:A7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5">
-        <v>43709</v>
+        <v>43748</v>
       </c>
       <c r="D2" s="9">
         <v>43709.291666666664</v>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="5">
-        <v>43710</v>
+        <v>43748</v>
       </c>
       <c r="D3" s="9">
         <v>43709.291666666664</v>
@@ -496,7 +496,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>43711</v>
+        <v>43748</v>
       </c>
       <c r="D4" s="9">
         <v>43709.291666666664</v>
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>43712</v>
+        <v>43748</v>
       </c>
       <c r="D5" s="9">
         <v>43709.5</v>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>43713</v>
+        <v>43748</v>
       </c>
       <c r="D6" s="9">
         <v>43709.500694444447</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="5">
-        <v>43714</v>
+        <v>43748</v>
       </c>
       <c r="D7" s="9">
         <v>43709.502083333333</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5">
-        <v>43715</v>
+        <v>43748</v>
       </c>
       <c r="D8" s="9">
         <v>43709.666666666664</v>
@@ -581,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="5">
-        <v>43716</v>
+        <v>43748</v>
       </c>
       <c r="D9" s="9">
         <v>43709.667361111111</v>
@@ -598,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="5">
-        <v>43717</v>
+        <v>43748</v>
       </c>
       <c r="D10" s="9">
         <v>43709.668749999997</v>
